--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2595294.185654446</v>
+        <v>2703936.346957258</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8986760.114205793</v>
+        <v>8992253.760194208</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>203.052155105925</v>
       </c>
       <c r="X2" t="n">
-        <v>129.734409646288</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>17.13020520779774</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>57.21181408919353</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>353.1566430855412</v>
+        <v>42.82850009385233</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>117.5778172694991</v>
+        <v>108.6948989672606</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>107.7713495553421</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>143.8648488914832</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>210.4215906786157</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>217.0591245697586</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1997375316454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>74.41917683133092</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223644</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>19.17715139986178</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>136.4207955213654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>194.365046297911</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>122.4770547252874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>72.60410776434674</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>25.07757910977671</v>
+        <v>60.66149661128528</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.49605685438683</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>59.64858198764704</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>154.0364602909683</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>13.03790159951684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>281.2018129503338</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>213.6019919131848</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.74785292486219</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>153.5842618151923</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.65182679923952</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>21.69718571885219</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>283.6507840917154</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.5363853637798</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>898.5363853637798</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>2023.791292556768</v>
       </c>
       <c r="X2" t="n">
-        <v>1285.136225427902</v>
+        <v>1650.325534295688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1285.136225427902</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>343.626060018205</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>638.3296170496767</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.3248513148831</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1578.656408873291</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1382.027661033153</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1382.027661033153</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1382.027661033153</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1382.027661033153</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.765895288653</v>
+        <v>1092.610490996192</v>
       </c>
       <c r="X4" t="n">
-        <v>1021.765895288653</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.9733161451228</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1240.759433410665</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C5" t="n">
-        <v>871.7969164702531</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D5" t="n">
-        <v>871.7969164702531</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E5" t="n">
-        <v>486.0086638720089</v>
+        <v>880.645441216167</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4586,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735866</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1627.359273474787</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.359273474787</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.841548125043</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4752,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>995.4900129552827</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="V7" t="n">
-        <v>995.4900129552827</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="W7" t="n">
-        <v>995.4900129552827</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="X7" t="n">
-        <v>995.4900129552827</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="Y7" t="n">
-        <v>995.4900129552827</v>
+        <v>783.6700785614887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140705</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D8" t="n">
-        <v>936.9705155339545</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2292.322091743309</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2038.741031007489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2038.741031007489</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1295.833043761563</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686071</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064747</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080118</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986292</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978976</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513958</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068412</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.8675266085669</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1523.061602623788</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1233.958735749432</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>979.2742475435448</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W10" t="n">
-        <v>689.8570775065842</v>
+        <v>1220.565731254804</v>
       </c>
       <c r="X10" t="n">
-        <v>461.8675266085669</v>
+        <v>992.5761803567867</v>
       </c>
       <c r="Y10" t="n">
-        <v>461.8675266085669</v>
+        <v>771.7836012132566</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1055.185257670615</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1685.615852542402</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1457.626301644385</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.833722500854</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U16" t="n">
-        <v>1958.090220510648</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.405732304761</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.9885622678</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369783</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5512,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3299.055326488948</v>
+        <v>3260.450525729773</v>
       </c>
       <c r="C22" t="n">
-        <v>3130.119143561041</v>
+        <v>3091.514342801866</v>
       </c>
       <c r="D22" t="n">
-        <v>2980.002504148706</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E22" t="n">
-        <v>2832.089410566312</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F22" t="n">
-        <v>2685.199463068402</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053498</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397696</v>
+        <v>4218.903091397697</v>
       </c>
       <c r="V22" t="n">
-        <v>4218.903091397696</v>
+        <v>3964.21860319181</v>
       </c>
       <c r="W22" t="n">
-        <v>3929.485921360735</v>
+        <v>3890.881120601561</v>
       </c>
       <c r="X22" t="n">
-        <v>3701.496370462718</v>
+        <v>3662.891569703543</v>
       </c>
       <c r="Y22" t="n">
-        <v>3480.703791319188</v>
+        <v>3442.098990560013</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856866</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577797</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>489.836033045444</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6184,13 +6186,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.810879820877</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647281</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>800.5007694647281</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>650.3841300523924</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2386.711990663445</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.85715631835</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1984.25569134129</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1695.180464685488</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732381</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>189.0729639753278</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,16 +6788,16 @@
         <v>3060.83890577277</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>4210.127123638609</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
         <v>4690.833152398593</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.273679552237</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1621.58919134635</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.172021309389</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>3355.249510984192</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154069</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C37" t="n">
-        <v>709.4207169875</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>559.3040775751642</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>559.3040775751642</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="41">
@@ -7403,34 +7405,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2321.683211348583</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2102.081746371524</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1813.006519715722</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1558.322031509835</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7630,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7655,7 +7657,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>45.76488231024615</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>224.3355197601773</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>154.0169020165192</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.9556134883065965</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.04708356698244</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>144.1654765207639</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>40.32043864788521</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>149.7636788678787</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>31.34460909112616</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.04708356698146</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>213.9188905722443</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>121.3563835367925</v>
+        <v>85.77246603528388</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.9379057921823</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>6.726664722474645</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>25.79551989096905</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.486236692752</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4.982661438910327</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>12.10766347585235</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.67319509806906</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>98.55338150863568</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.3744592024051</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.9182872993602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.533690297528779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786089.1210211926</v>
+        <v>792031.0485222634</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520051</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805868</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707329</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707278</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707335</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-682765.8669559623</v>
       </c>
       <c r="C6" t="n">
-        <v>431985.9166199574</v>
+        <v>431985.9166199573</v>
       </c>
       <c r="D6" t="n">
-        <v>270187.8756216367</v>
+        <v>431985.9166199572</v>
       </c>
       <c r="E6" t="n">
-        <v>212284.8636240352</v>
+        <v>30211.88380684446</v>
       </c>
       <c r="F6" t="n">
+        <v>537697.3254313902</v>
+      </c>
+      <c r="G6" t="n">
+        <v>537697.3254313907</v>
+      </c>
+      <c r="H6" t="n">
+        <v>537697.3254313902</v>
+      </c>
+      <c r="I6" t="n">
         <v>537697.3254313903</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>370092.1476214078</v>
+      </c>
+      <c r="K6" t="n">
+        <v>537697.3254313904</v>
+      </c>
+      <c r="L6" t="n">
+        <v>537697.3254313904</v>
+      </c>
+      <c r="M6" t="n">
+        <v>405090.0317024635</v>
+      </c>
+      <c r="N6" t="n">
         <v>537697.3254313908</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>537697.3254313907</v>
       </c>
-      <c r="I6" t="n">
-        <v>537697.3254313907</v>
-      </c>
-      <c r="J6" t="n">
-        <v>370092.1476214082</v>
-      </c>
-      <c r="K6" t="n">
-        <v>537697.3254313907</v>
-      </c>
-      <c r="L6" t="n">
-        <v>489403.3554232002</v>
-      </c>
-      <c r="M6" t="n">
-        <v>452642.2974958787</v>
-      </c>
-      <c r="N6" t="n">
-        <v>537697.3254313904</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>537697.3254313905</v>
-      </c>
-      <c r="P6" t="n">
-        <v>537697.3254313907</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,13 +26986,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>146.188813611488</v>
       </c>
       <c r="X2" t="n">
-        <v>239.996691032181</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150.1166158908301</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.3457583303801</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>53.71940265617025</v>
+        <v>364.0475456478591</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>168.6493368517015</v>
+        <v>177.53225515394</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>274.1590205169197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.79333608875052</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9.127358597553524</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.46387376683239</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31847,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,10 +32323,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>375.1407109807897</v>
+        <v>704.1404939038093</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>339.349358460158</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>243.172991359853</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>305.6802133385881</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,10 +33265,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33736,34 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807894</v>
       </c>
       <c r="O36" t="n">
-        <v>388.5140139297707</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>695.2222086167877</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O45" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>232.3523785537309</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>489.4415840126422</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127482</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,10 +35971,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>243.7989988974564</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802838</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7058059242579</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36841,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531435</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974562</v>
       </c>
       <c r="O36" t="n">
-        <v>245.9177694853263</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>563.8804965334544</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38026,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O45" t="n">
-        <v>226.582746865555</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2703936.346957258</v>
+        <v>2699799.189707107</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>62.18412773543107</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>203.052155105925</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>57.21181408919353</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>260.0981358498379</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.82850009385233</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.6948989672606</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>143.8648488914832</v>
+        <v>35.54361781414391</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>217.0591245697586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.41917683133092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.05480806223644</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>160.428800290702</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>194.365046297911</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>72.60410776434674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>60.66149661128528</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.64858198764704</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.0364602909683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6019919131848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>153.5842618151923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.7906564314211</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.65182679923952</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>283.6507840917154</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.725694231566</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1285.984832846309</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>900.1965802480647</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2023.791292556768</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1650.325534295688</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1650.325534295688</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2349.761373717039</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.9724752679349</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
         <v>514.036292340028</v>
@@ -4479,61 +4479,61 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1578.656408873291</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1382.027661033153</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1382.027661033153</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1382.027661033153</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1382.027661033153</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.610490996192</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6209400981746</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.6209400981746</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.645441216167</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C5" t="n">
-        <v>880.645441216167</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>880.645441216167</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>880.645441216167</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.645441216167</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>602.021613731249</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1004.462657705019</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1004.462657705019</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.462657705019</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.462657705019</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y7" t="n">
-        <v>783.6700785614887</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.233203697441</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2292.322091743309</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U8" t="n">
-        <v>2038.741031007489</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>2038.741031007489</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1685.972375737374</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>1685.972375737374</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>1295.833043761563</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4889,19 +4889,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.7836012132566</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>602.8474182853497</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234358</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1439.817372234358</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1220.565731254804</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>992.5761803567867</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>771.7836012132566</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.645095638608</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.790261293512</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.188796316454</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.113569660651</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1474.429081454764</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.011911417804</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.2297813762561</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084667</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729773</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801866</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389531</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053499</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397697</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.21860319181</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3890.881120601561</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703543</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560013</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.44064873475</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2386.711990663445</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2203.85715631835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1984.25569134129</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.180464685488</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3658.217393399322</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4210.127123638609</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>3571.009098775287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3355.249510984192</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3355.249510984192</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756267</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913855</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.448174698413</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0966395286528</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2321.683211348583</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2102.081746371524</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1813.006519715722</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1558.322031509835</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.904861472874</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1873.799971328619</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1619.115483122732</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1329.698313085771</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.708762187754</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282439</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>73.66059580999766</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601773</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9556134883065965</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.1654765207639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.32043864788521</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.15585306139283</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>31.34460909112616</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.9188905722443</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>85.77246603528388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>38.59775584152646</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.726664722474645</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.79551989096905</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.30478226780143</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>12.10766347585235</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>98.55338150863568</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>40.6433062151481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.3744592024051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>2.533690297528779</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="C2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
@@ -26355,7 +26355,7 @@
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>5.158484839284938e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,22 +26392,22 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289272</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707394</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707414</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707278</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-682765.8669559623</v>
       </c>
       <c r="C6" t="n">
-        <v>431985.9166199573</v>
+        <v>431985.9166199575</v>
       </c>
       <c r="D6" t="n">
-        <v>431985.9166199572</v>
+        <v>431985.9166199574</v>
       </c>
       <c r="E6" t="n">
-        <v>30211.88380684446</v>
+        <v>29864.50455248786</v>
       </c>
       <c r="F6" t="n">
-        <v>537697.3254313902</v>
+        <v>537349.946177033</v>
       </c>
       <c r="G6" t="n">
-        <v>537697.3254313907</v>
+        <v>537349.9461770336</v>
       </c>
       <c r="H6" t="n">
-        <v>537697.3254313902</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="I6" t="n">
-        <v>537697.3254313903</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="J6" t="n">
-        <v>370092.1476214078</v>
+        <v>369744.7683670507</v>
       </c>
       <c r="K6" t="n">
-        <v>537697.3254313904</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="L6" t="n">
-        <v>537697.3254313904</v>
+        <v>537349.9461770336</v>
       </c>
       <c r="M6" t="n">
-        <v>405090.0317024635</v>
+        <v>404742.652448107</v>
       </c>
       <c r="N6" t="n">
-        <v>537697.3254313908</v>
+        <v>537349.9461770335</v>
       </c>
       <c r="O6" t="n">
-        <v>537697.3254313907</v>
+        <v>537349.9461770336</v>
       </c>
       <c r="P6" t="n">
-        <v>537697.3254313905</v>
+        <v>537349.9461770336</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
+        <v>6.821210263296962e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>344.6919180062804</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>146.188813611488</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.3457583303801</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>122.6357058136426</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>364.0475456478591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>177.53225515394</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>62.79333608875052</v>
+        <v>171.1145671660898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>69.46387376683239</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.576606009251919e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.349358460158</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,25 +32791,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>383.9182138639285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>375.1407109807894</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33973,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>689.3300812557329</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>190.1413181408522</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>336.3802954844296</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127482</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802838</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>243.7989988974562</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>557.9883691723996</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699799.189707107</v>
+        <v>2701559.720009891</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>62.18412773543107</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>66.44641297686549</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>135.8842974161963</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.0981358498379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>35.54361781414437</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>91.33310034723233</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>35.54361781414391</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051593</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9399954524559</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.428800290702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4285301601181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.07046444232026</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>206.5358970628699</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>172.3645574474261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.250531453059</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.984832846309</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E2" t="n">
-        <v>900.1965802480647</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2495.221739534635</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2241.640678798814</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1910.577791455244</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1557.80913618513</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1184.34337792405</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884742</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2349.761373717039</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1499.189253997532</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1499.189253997532</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1210.070916501369</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1210.070916501369</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>473.8970375929177</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,7 +4585,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402288</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.8191504929254</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="C8" t="n">
-        <v>69.85663355251364</v>
+        <v>960.8755446027092</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>602.6098459959587</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>216.8215933977145</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>209.876092648511</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.436684143444</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.855623407624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.792736064053</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.024080793939</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.558322532859</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.4189905570472</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2318.56978993398</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374698</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939397</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.6425904082686</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>470.7064074803617</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.2910552385083</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908939</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1727.373486017864</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1472.688997811978</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.271827775017</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>955.2822768769995</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.4896977334694</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6366,22 +6366,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,22 +7019,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>120.1346509896242</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>15.64270034434952</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.66059580999766</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>105.1672460959153</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.15585306139283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>38.59775584152646</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.30478226780143</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>55.21102825632968</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914272</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520047</v>
@@ -26346,16 +26346,16 @@
         <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>5.158484839284938e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707394</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707412</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707414</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
@@ -26456,7 +26456,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682765.8669559623</v>
+        <v>-682765.8669559628</v>
       </c>
       <c r="C6" t="n">
         <v>431985.9166199575</v>
       </c>
       <c r="D6" t="n">
-        <v>431985.9166199574</v>
+        <v>431985.9166199575</v>
       </c>
       <c r="E6" t="n">
-        <v>29864.50455248786</v>
+        <v>30177.14588140865</v>
       </c>
       <c r="F6" t="n">
-        <v>537349.946177033</v>
+        <v>537662.5875059546</v>
       </c>
       <c r="G6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="H6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059547</v>
       </c>
       <c r="I6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059546</v>
       </c>
       <c r="J6" t="n">
-        <v>369744.7683670507</v>
+        <v>370057.4096959719</v>
       </c>
       <c r="K6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059547</v>
       </c>
       <c r="L6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059549</v>
       </c>
       <c r="M6" t="n">
-        <v>404742.652448107</v>
+        <v>405055.293777028</v>
       </c>
       <c r="N6" t="n">
-        <v>537349.9461770335</v>
+        <v>537662.587505955</v>
       </c>
       <c r="O6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="P6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059549</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>344.6919180062804</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>140.2117720033683</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>58.7781629455412</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.6357058136426</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>171.1145671660894</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>320.2146024257216</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>171.1145671660898</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.576606009251919e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33739,10 +33739,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34719,7 +34719,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402551</v>
       </c>
       <c r="R2" t="n">
         <v>20.29166330939907</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>382.5740326263901</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.1413181408522</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>221.6479684267698</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
